--- a/altium/bom/BuckConverterAP64500-BOM.xlsx
+++ b/altium/bom/BuckConverterAP64500-BOM.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="68">
   <si>
     <t xml:space="preserve">Line #</t>
   </si>
@@ -59,70 +59,175 @@
     <t xml:space="preserve">Supplier Subtotal 1</t>
   </si>
   <si>
+    <t xml:space="preserve">9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Synchronous Buck Converter, 4.5V-18V, 5A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rohm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BD86120EFJ-E2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volume Production</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Digi-Key</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BD86120EFJ-E2CT-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Point Loop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keystone Electronics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36-1033-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XFMR, 20mH, 1.4Ω DCR, 100:1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pulse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PE-51687NL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">553-1543-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RES, 1.00kΩ ±1.00%, 250mW, 0805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stackpole Electronics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNCP0805FTD1K00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNCP0805FTD1K00CT-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heatsink, 18C/W @ Natural</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Advanced Thermal Solutions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATS-PCB1073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATS2115-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IND, 5.6uH ±20.0%, 19.3mΩ DCR, 12A Irms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bourns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SRP1038C-5R6M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unknown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SRP1038C-5R6MCT-ND</t>
+  </si>
+  <si>
     <t xml:space="preserve">3</t>
   </si>
   <si>
-    <t xml:space="preserve">L1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IND, 5.6uH ±20.0%, 19.3mΩ DCR, 12A Irms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bourns</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRP1038C-5R6M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unknown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Digi-Key</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRP1038C-5R6MCT-ND</t>
+    <t xml:space="preserve">J1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DC Power Jack, 24V, 2.5A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUI Devices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PJ-002A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CP-002A-ND</t>
   </si>
   <si>
     <t xml:space="preserve">2</t>
   </si>
   <si>
-    <t xml:space="preserve">R1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RES, 1.00kΩ ±1.00%, 250mW, 0805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stackpole Electronics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RNCP0805FTD1K00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Volume Production</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RNCP0805FTD1K00CT-ND</t>
+    <t xml:space="preserve">C1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAP, 1.0uF ±10.0%, 25V, 0805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samsung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL21B105KAFNNNE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">End of Life</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1276-1066-1-ND</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">C1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAP, 1.0uF ±10.0%, 25V, 0805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Samsung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CL21B105KAFNNNE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">End of Life</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1276-1066-1-ND</t>
+    <t xml:space="preserve">AC/DC DESKTOP ADAPTER 12V 60W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GlobTek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TR9CE5000LCP-N(R6B)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1939-1237-ND</t>
   </si>
 </sst>
 </file>
@@ -332,7 +437,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -344,7 +449,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="38.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="24.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="27.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="24.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="12.81"/>
@@ -417,10 +522,10 @@
         <v>18</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>1.51</v>
+        <v>2.19</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.51</v>
+        <v>2.19</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -443,54 +548,262 @@
         <v>23</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>17</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="G4" s="4" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>4.08</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="4" t="n">
+      <c r="C5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" s="4" t="n">
         <v>0.1</v>
       </c>
-      <c r="K4" s="4" t="n">
+      <c r="K5" s="4" t="n">
         <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J7" s="4" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="K7" s="4" t="n">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J8" s="4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="K8" s="4" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J9" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="K9" s="4" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J10" s="4" t="n">
+        <v>18.43</v>
+      </c>
+      <c r="K10" s="4" t="n">
+        <v>18.43</v>
       </c>
     </row>
   </sheetData>

--- a/altium/bom/BuckConverterAP64500-BOM.xlsx
+++ b/altium/bom/BuckConverterAP64500-BOM.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="85">
   <si>
     <t xml:space="preserve">Line #</t>
   </si>
@@ -59,175 +59,226 @@
     <t xml:space="preserve">Supplier Subtotal 1</t>
   </si>
   <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Synchronous Buck Converter, 4.5V-18V, 5A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rohm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BD86120EFJ-E2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volume Production</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Digi-Key</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BD86120EFJ-E2CT-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Point Loop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keystone Electronics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36-1033-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XFMR, 20mH, 1.4Ω DCR, 100:1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pulse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PE-51687NL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">553-1543-ND</t>
+  </si>
+  <si>
     <t xml:space="preserve">9</t>
   </si>
   <si>
-    <t xml:space="preserve">U1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Synchronous Buck Converter, 4.5V-18V, 5A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rohm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BD86120EFJ-E2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Volume Production</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Digi-Key</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BD86120EFJ-E2CT-ND</t>
+    <t xml:space="preserve">R1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RES, 1.00kΩ ±1.00%, 250mW, 0805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stackpole Electronics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNCP0805FTD1K00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNCP0805FTD1K00CT-ND</t>
   </si>
   <si>
     <t xml:space="preserve">8</t>
   </si>
   <si>
-    <t xml:space="preserve">TP1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test Point Loop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keystone Electronics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36-1033-ND</t>
+    <t xml:space="preserve">M1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heatsink, 18C/W @ Natural</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Advanced Thermal Solutions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATS-PCB1073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATS2115-ND</t>
   </si>
   <si>
     <t xml:space="preserve">7</t>
   </si>
   <si>
-    <t xml:space="preserve">T1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XFMR, 20mH, 1.4Ω DCR, 100:1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pulse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PE-51687NL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">553-1543-ND</t>
+    <t xml:space="preserve">L1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IND, 5.6uH ±20.0%, 19.3mΩ DCR, 12A Irms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bourns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SRP1038C-5R6M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unknown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SRP1038C-5R6MCT-ND</t>
   </si>
   <si>
     <t xml:space="preserve">6</t>
   </si>
   <si>
-    <t xml:space="preserve">R1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RES, 1.00kΩ ±1.00%, 250mW, 0805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stackpole Electronics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RNCP0805FTD1K00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RNCP0805FTD1K00CT-ND</t>
+    <t xml:space="preserve">J2, J3, J4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BNC Receptacle, 50Ω</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73100-0105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WM5524-ND</t>
   </si>
   <si>
     <t xml:space="preserve">5</t>
   </si>
   <si>
-    <t xml:space="preserve">M1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heatsink, 18C/W @ Natural</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Advanced Thermal Solutions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATS-PCB1073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATS2115-ND</t>
+    <t xml:space="preserve">J1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DC Power Jack, 48V, 6.5A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tensility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54-00165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">839-54-00165CT-ND</t>
   </si>
   <si>
     <t xml:space="preserve">4</t>
   </si>
   <si>
-    <t xml:space="preserve">L1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IND, 5.6uH ±20.0%, 19.3mΩ DCR, 12A Irms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bourns</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRP1038C-5R6M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unknown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRP1038C-5R6MCT-ND</t>
+    <t xml:space="preserve">C1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAP, 1.0uF ±10.0%, 25V, 0805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samsung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CL21B105KAFNNNE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">End of Life</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1276-1066-1-ND</t>
   </si>
   <si>
     <t xml:space="preserve">3</t>
   </si>
   <si>
-    <t xml:space="preserve">J1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DC Power Jack, 24V, 2.5A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CUI Devices</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PJ-002A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CP-002A-ND</t>
+    <t xml:space="preserve">AC/DC DESKTOP ADAPTER 12V 60W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GlobTek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TR9CE5000LCP-N(R6B)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1939-1237-ND</t>
   </si>
   <si>
     <t xml:space="preserve">2</t>
   </si>
   <si>
-    <t xml:space="preserve">C1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAP, 1.0uF ±10.0%, 25V, 0805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Samsung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CL21B105KAFNNNE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">End of Life</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1276-1066-1-ND</t>
+    <t xml:space="preserve">TEST LEAD BNC TO GRAB HOOK 24"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pomona Electronics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5187-C-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mouser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">565-5187-C-24</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">AC/DC DESKTOP ADAPTER 12V 60W</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GlobTek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TR9CE5000LCP-N(R6B)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1939-1237-ND</t>
+    <t xml:space="preserve">CBL ASSY BNC PLUG-PLUG RG58 24"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bel Cinch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">415-0054-024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">530-415-0054-024</t>
   </si>
 </sst>
 </file>
@@ -437,7 +488,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -714,7 +765,7 @@
         <v>52</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>53</v>
@@ -723,7 +774,7 @@
         <v>54</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>17</v>
@@ -732,10 +783,10 @@
         <v>55</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>0.6</v>
+        <v>2.02</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>0.6</v>
+        <v>6.06</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -758,26 +809,28 @@
         <v>60</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>17</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>0.1</v>
+        <v>0.68</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>0.1</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
         <v>64</v>
       </c>
@@ -791,19 +844,118 @@
         <v>66</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>17</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J10" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="K10" s="4" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="J11" s="4" t="n">
         <v>18.43</v>
       </c>
-      <c r="K10" s="4" t="n">
+      <c r="K11" s="4" t="n">
         <v>18.43</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="J12" s="4" t="n">
+        <v>23.99</v>
+      </c>
+      <c r="K12" s="4" t="n">
+        <v>23.99</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="J13" s="4" t="n">
+        <v>9.84</v>
+      </c>
+      <c r="K13" s="4" t="n">
+        <v>29.52</v>
       </c>
     </row>
   </sheetData>
